--- a/DATA/rainfall/EPM_hourly/station_summary.xlsx
+++ b/DATA/rainfall/EPM_hourly/station_summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Station</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>Rows &gt; 0</t>
+  </si>
+  <si>
+    <t>percentage of hours with rainfall</t>
+  </si>
+  <si>
+    <t>&gt;30mm</t>
+  </si>
+  <si>
+    <t>&gt;10mm</t>
+  </si>
+  <si>
+    <t>1-10mm</t>
   </si>
   <si>
     <t>P_Manantiales</t>
@@ -82,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -105,13 +117,24 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -134,15 +157,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -359,8 +388,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
+    <col customWidth="1" min="1" max="1" width="19.14"/>
+    <col customWidth="1" min="2" max="2" width="9.0"/>
+    <col customWidth="1" min="3" max="3" width="8.43"/>
     <col customWidth="1" min="4" max="4" width="10.43"/>
     <col customWidth="1" min="5" max="5" width="12.86"/>
     <col customWidth="1" min="6" max="6" width="10.14"/>
@@ -390,281 +420,449 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4">
         <v>31594.0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>44863.0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>318457.0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>5951.0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>235035.0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>77471.0</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H13" si="1">G2/(D2-E2)</f>
+        <v>0.2479024403</v>
+      </c>
+      <c r="I2" s="5">
+        <v>94.0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1069.0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>13883.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
         <v>17619.0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>44863.0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>653857.0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>5365.0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>396941.0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>251551.0</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3879014699</v>
+      </c>
+      <c r="I3" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>648.0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>27578.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4">
         <v>18139.0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>44863.0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>641377.0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>4036.0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>372959.0</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>264382.0</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4148203238</v>
+      </c>
+      <c r="I4" s="5">
+        <v>52.0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>959.0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>34539.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
         <v>17722.0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>44863.0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>651385.0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>4198.0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>400257.0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>246930.0</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3815435106</v>
+      </c>
+      <c r="I5" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>545.0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>23312.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
         <v>18132.0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>44863.0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>641545.0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>4129.0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>374997.0</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>262419.0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4116918935</v>
+      </c>
+      <c r="I6" s="5">
+        <v>33.0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>638.0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>25988.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
         <v>26357.0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>44863.0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>444145.0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>3531.0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>280121.0</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>160493.0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3642485259</v>
+      </c>
+      <c r="I7" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>723.0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>20099.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
         <v>33604.0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>44863.0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>270217.0</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>4044.0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>216280.0</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>49893.0</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.187445759</v>
+      </c>
+      <c r="I8" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>595.0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>9992.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4">
         <v>33170.0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>44863.0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>280633.0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>7210.0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>209873.0</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>63550.0</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2324237537</v>
+      </c>
+      <c r="I9" s="5">
+        <v>56.0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>951.0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>12854.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4">
         <v>34700.0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>44863.0</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>243913.0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>4029.0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>203683.0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>36201.0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15091044</v>
+      </c>
+      <c r="I10" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>437.0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>9855.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4">
         <v>35096.91666666666</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>44863.0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>234387.0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>4164.0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>195089.0</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>35134.0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1526085578</v>
+      </c>
+      <c r="I11" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>416.0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>8149.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4">
         <v>35096.95833333334</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>44863.0</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>234386.0</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>4391.0</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>196763.0</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>33232.0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1444900976</v>
+      </c>
+      <c r="I12" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>469.0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>8451.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
         <v>19725.0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>44863.0</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>603313.0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>6059.0</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>370632.0</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>226622.0</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3794399033</v>
+      </c>
+      <c r="I13" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>479.0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>18095.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
